--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_MCPS_General.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.179454873784825</v>
+        <v>0.9986931695954243</v>
       </c>
       <c r="D2">
-        <v>0.2382727780006175</v>
+        <v>0.3249983597280082</v>
       </c>
       <c r="E2">
         <v>1.600396067931746</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.8756426508230981</v>
+        <v>0.9020191021013145</v>
       </c>
       <c r="D3">
-        <v>0.3812660682234621</v>
+        <v>0.3733926597242712</v>
       </c>
       <c r="E3">
         <v>1.600396067931746</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.006515390599197817</v>
+        <v>-0.008218464787892052</v>
       </c>
       <c r="D4">
-        <v>0.9948017651267527</v>
+        <v>0.9934907216136308</v>
       </c>
       <c r="E4">
         <v>1.600396067931746</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.798446142561718</v>
+        <v>-1.619712381982112</v>
       </c>
       <c r="D5">
-        <v>0.07216616225450045</v>
+        <v>0.1145339259482292</v>
       </c>
       <c r="E5">
         <v>1.600396067931746</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.4829562234021563</v>
+        <v>-0.6012970551071446</v>
       </c>
       <c r="D6">
-        <v>0.629147800880586</v>
+        <v>0.5516304305335686</v>
       </c>
       <c r="E6">
         <v>1.335035702469979</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.62564353398363</v>
+        <v>-1.431138537325558</v>
       </c>
       <c r="D7">
-        <v>0.1040880428021866</v>
+        <v>0.1615185792220515</v>
       </c>
       <c r="E7">
         <v>1.335035702469979</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-2.609711724224995</v>
+        <v>-1.64200636485271</v>
       </c>
       <c r="D8">
-        <v>0.009088657815747192</v>
+        <v>0.1098075962741822</v>
       </c>
       <c r="E8">
         <v>1.335035702469979</v>
@@ -609,7 +606,7 @@
         <v>1.997083999217681</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>40</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.069818251071923</v>
+        <v>-1.189886919214864</v>
       </c>
       <c r="D9">
-        <v>0.2847523672444447</v>
+        <v>0.2423335535766857</v>
       </c>
       <c r="E9">
         <v>1.412986559195729</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-2.072905465935265</v>
+        <v>-1.604068123660045</v>
       </c>
       <c r="D10">
-        <v>0.03823179239453722</v>
+        <v>0.1179493680421706</v>
       </c>
       <c r="E10">
         <v>1.412986559195729</v>
@@ -661,7 +658,7 @@
         <v>1.997083999217681</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>60</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.422180328330483</v>
+        <v>-1.265508176158052</v>
       </c>
       <c r="D11">
-        <v>0.1550358020577289</v>
+        <v>0.2142931672162649</v>
       </c>
       <c r="E11">
         <v>1.60193053390228</v>
